--- a/cska_stats.xlsx
+++ b/cska_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\cska_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D69B8F-28FD-4F6A-AB5C-D9A1747F10BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF1560-EF80-48DA-90D5-4D0ABBB92A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>СТАТИСТИКА ИГРОКОВ ЦСКА</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Маркина Полина</t>
-  </si>
-  <si>
-    <t>матчи по появлению в протоколе</t>
   </si>
 </sst>
 </file>
@@ -453,9 +450,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C26"/>
     </sheetView>
   </sheetViews>
@@ -464,11 +461,11 @@
     <col min="1" max="1" width="23.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="7" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="18" width="8.88671875" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -477,10 +474,10 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -491,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -502,7 +499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -512,11 +509,8 @@
       <c r="C5" s="2">
         <v>209</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -527,7 +521,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -538,7 +532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -549,7 +543,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -560,7 +554,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -571,7 +565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -582,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -593,7 +587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -604,7 +598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -615,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -626,7 +620,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>

--- a/cska_stats.xlsx
+++ b/cska_stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -430,17 +430,17 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="23.6640625" customWidth="1" style="9" min="1" max="1"/>
-    <col width="15.77734375" customWidth="1" style="9" min="2" max="2"/>
-    <col width="26.5546875" customWidth="1" style="9" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="9" min="4" max="18"/>
-    <col width="8.88671875" customWidth="1" style="9" min="19" max="16384"/>
+    <col width="23.7109375" customWidth="1" style="9" min="1" max="1"/>
+    <col width="15.7109375" customWidth="1" style="9" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="9" min="3" max="3"/>
+    <col width="8.85546875" customWidth="1" style="9" min="4" max="19"/>
+    <col width="8.85546875" customWidth="1" style="9" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>14</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" ht="27.6" customHeight="1" s="9">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1342</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
